--- a/biology/Botanique/Tillandsia_astragaloides/Tillandsia_astragaloides.xlsx
+++ b/biology/Botanique/Tillandsia_astragaloides/Tillandsia_astragaloides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia astragaloides Mez est une plante épiphyte[1],[2] de la famille des Bromeliaceae, originaire du Brésil et de l'Argentine[1]. L'épithète astragaloides signifie « ressemblant à Astragalus » et se réfère une relative ressemblance de la plante avec certains membres de ce genre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia astragaloides Mez est une plante épiphyte, de la famille des Bromeliaceae, originaire du Brésil et de l'Argentine. L'épithète astragaloides signifie « ressemblant à Astragalus » et se réfère une relative ressemblance de la plante avec certains membres de ce genre.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia astragaloides Mez in Mart., Fl. Bras. 3(3): 601 (1894)
-Diagnose originale[1]
+Diagnose originale
 « TILLANDSIA ASTRAGALOIDES Mez n. sp. foliis caulem elongatum ramosumque obtegentibus quaquaversis, subulatis, minute adpresseque lepidotis; inflorescentia scapo brevi stipitata foliaque subaequante vel minute superante, perpauciflora, simplicissima quaquaverse spicata; bracteis amplis, late lanceolatis acutis, glabris, sepala longe superantibus; sepalis antico ad 1,5 mm. cum reliquis, posticis apicem usque in foliolum unicum connatis, glabris. »
 Type
 leg. Niederlein, n° 1211 ; « In Brasiliae Argentinaeque limitibus in territorio Misiones ad San Pedro » ; Herb. Hyeronymi.</t>
@@ -545,7 +559,9 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia astragaloides est une plante mal connue qui ne semble pas avoir été introduite en culture.
 </t>
